--- a/MPI.xlsx
+++ b/MPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/balki/CLionProjects/Assignment-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD082C5-A8E1-EC43-8C96-B984BD0709C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1637ED-5DF7-AB4D-94E9-902F9F3AAB82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18500" xr2:uid="{62CEE3D8-299A-6941-909C-BDF0D180EFBC}"/>
   </bookViews>
@@ -450,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D01D5A9-5E85-324C-B28A-532795135F23}">
-  <dimension ref="A1:AA95"/>
+  <dimension ref="A1:AB95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="AD54" sqref="AD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1157,7 +1157,7 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1183,8 +1183,11 @@
       <c r="Y49" s="6"/>
       <c r="Z49" s="2"/>
       <c r="AA49" s="6"/>
-    </row>
-    <row r="50" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1211,7 +1214,7 @@
       <c r="Z50" s="3"/>
       <c r="AA50" s="4"/>
     </row>
-    <row r="51" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1237,8 +1240,11 @@
       <c r="Y51" s="6"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="6"/>
-    </row>
-    <row r="52" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1265,7 +1271,7 @@
       <c r="Z52" s="3"/>
       <c r="AA52" s="4"/>
     </row>
-    <row r="53" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="T53" s="2"/>
       <c r="U53" s="6"/>
@@ -1275,8 +1281,11 @@
       <c r="Y53" s="6"/>
       <c r="Z53" s="2"/>
       <c r="AA53" s="6"/>
-    </row>
-    <row r="54" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB53">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -1303,7 +1312,7 @@
       <c r="Z54" s="3"/>
       <c r="AA54" s="4"/>
     </row>
-    <row r="55" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1329,8 +1338,11 @@
       <c r="Y55" s="6"/>
       <c r="Z55" s="2"/>
       <c r="AA55" s="6"/>
-    </row>
-    <row r="56" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB55">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -1357,7 +1369,7 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="4"/>
     </row>
-    <row r="57" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1376,7 +1388,7 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="6"/>
     </row>
-    <row r="58" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -1395,7 +1407,7 @@
       <c r="Q58" s="3"/>
       <c r="R58" s="6"/>
     </row>
-    <row r="59" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1414,7 +1426,7 @@
       <c r="Q59" s="3"/>
       <c r="R59" s="6"/>
     </row>
-    <row r="60" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -1433,7 +1445,7 @@
       <c r="Q60" s="3"/>
       <c r="R60" s="6"/>
     </row>
-    <row r="61" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1452,13 +1464,13 @@
       <c r="Q61" s="3"/>
       <c r="R61" s="6"/>
     </row>
-    <row r="62" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64"/>
     </row>
     <row r="65" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
